--- a/test/adaptive/results/score_ragas_adaptive_20241227071640_vdb1000200_optimization.xlsx
+++ b/test/adaptive/results/score_ragas_adaptive_20241227071640_vdb1000200_optimization.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\adaptive\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4104BD-2A04-4830-8C9F-345F1C7F977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="189">
   <si>
     <t>question</t>
   </si>
@@ -940,8 +946,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,12 +964,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -993,11 +1011,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,13 +1025,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1049,7 +1077,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1083,6 +1111,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1117,9 +1146,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1292,14 +1322,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1374,7 @@
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1351,13 +1383,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.8820855704736036</v>
+        <v>0.88208557047360359</v>
       </c>
       <c r="I2">
-        <v>0.9705213925934009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.97052139259340087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1403,7 @@
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1380,13 +1412,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9258262134765108</v>
+        <v>0.92582621347651084</v>
       </c>
       <c r="I3">
-        <v>0.9814565533441277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.98145655334412774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1432,7 @@
         <v>160</v>
       </c>
       <c r="E4">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1409,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.8949485996578921</v>
+        <v>0.89494859965789209</v>
       </c>
       <c r="I4">
-        <v>0.973737149889473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.97373714988947302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1429,7 +1461,7 @@
         <v>112</v>
       </c>
       <c r="E5">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1438,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.8731718592731655</v>
+        <v>0.87317185927316554</v>
       </c>
       <c r="I5">
-        <v>0.9682929647932914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.96829296479329141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1490,7 @@
         <v>161</v>
       </c>
       <c r="E6">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1467,42 +1499,42 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.8801839393933357</v>
+        <v>0.88018393939333572</v>
       </c>
       <c r="I6">
-        <v>0.9700459848233339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+        <v>0.97004598482333393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1548,7 @@
         <v>163</v>
       </c>
       <c r="E8">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1525,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.8810568131329077</v>
+        <v>0.88105681313290773</v>
       </c>
       <c r="I8">
-        <v>0.9702642032582269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.97026420325822693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1577,7 @@
         <v>116</v>
       </c>
       <c r="E9">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1554,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.8545680179921812</v>
+        <v>0.85456801799218118</v>
       </c>
       <c r="I9">
-        <v>0.9636420044730453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.96364200447304527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1606,7 @@
         <v>117</v>
       </c>
       <c r="E10">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1583,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.910300409089277</v>
+        <v>0.91030040908927701</v>
       </c>
       <c r="I10">
-        <v>0.9775751022473192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.97757510224731925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1603,7 +1635,7 @@
         <v>164</v>
       </c>
       <c r="E11">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F11">
         <v>0.8571428571428571</v>
@@ -1612,71 +1644,71 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.8629718889434052</v>
+        <v>0.86297188894340515</v>
       </c>
       <c r="I11">
-        <v>0.9300286864965656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+        <v>0.93002868649656556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E12">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.5</v>
       </c>
-      <c r="H12">
-        <v>0.896001745909297</v>
-      </c>
-      <c r="I12">
-        <v>0.8490004364523243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="H12" s="3">
+        <v>0.89600174590929704</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.84900043645232426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>166</v>
       </c>
       <c r="E14">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1699,100 +1731,100 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.736457886939743</v>
+        <v>0.73645788693974301</v>
       </c>
       <c r="I14">
-        <v>0.9341144717099358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+        <v>0.93411447170993578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E15">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0.8835136060947454</v>
-      </c>
-      <c r="I15">
-        <v>0.8875450681653529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="E15" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.88351360609474539</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.88754506816535295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E16">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>0.5</v>
       </c>
-      <c r="H16">
-        <v>0.8844306330813089</v>
-      </c>
-      <c r="I16">
-        <v>0.8461076582453272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="H16" s="3">
+        <v>0.88443063308130887</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.84610765824532719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E17">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.9330309089446568</v>
-      </c>
-      <c r="I17">
-        <v>0.8999243938778309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="E17" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.93303090894465679</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.89992439387783085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1838,7 @@
         <v>125</v>
       </c>
       <c r="E18">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1815,13 +1847,13 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.9466255387648529</v>
+        <v>0.94662553876485289</v>
       </c>
       <c r="I18">
-        <v>0.9866563846662132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.98665638466621319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1867,7 @@
         <v>126</v>
       </c>
       <c r="E19">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1844,13 +1876,13 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.8910520927733142</v>
+        <v>0.89105209277331421</v>
       </c>
       <c r="I19">
-        <v>0.9727630231683285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.97276302316832852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1896,7 @@
         <v>168</v>
       </c>
       <c r="E20">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1873,13 +1905,13 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.8774408239401268</v>
+        <v>0.87744082394012679</v>
       </c>
       <c r="I20">
         <v>0.9693602059600317</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1925,7 @@
         <v>128</v>
       </c>
       <c r="E21">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1902,13 +1934,13 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.9345972679555867</v>
+        <v>0.93459726795558673</v>
       </c>
       <c r="I21">
-        <v>0.9836493169638967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.98364931696389668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1922,7 +1954,7 @@
         <v>129</v>
       </c>
       <c r="E22">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1931,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.9178310373128911</v>
+        <v>0.91783103731289106</v>
       </c>
       <c r="I22">
-        <v>0.9794577593032228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.97945775930322276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1983,7 @@
         <v>130</v>
       </c>
       <c r="E23">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1960,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.8807801562443022</v>
+        <v>0.88078015624430217</v>
       </c>
       <c r="I23">
-        <v>0.9701950390360755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.97019503903607551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1980,7 +2012,7 @@
         <v>131</v>
       </c>
       <c r="E24">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1989,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.9455265265255962</v>
+        <v>0.94552652652559621</v>
       </c>
       <c r="I24">
-        <v>0.986381631606399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.98638163160639902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2009,7 +2041,7 @@
         <v>132</v>
       </c>
       <c r="E25">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2018,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.8788629308424527</v>
+        <v>0.87886293084245271</v>
       </c>
       <c r="I25">
-        <v>0.9697157326856132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.96971573268561317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2070,7 @@
         <v>169</v>
       </c>
       <c r="E26">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2047,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.8692566917842486</v>
+        <v>0.86925669178424858</v>
       </c>
       <c r="I26">
-        <v>0.9673141729210621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.96731417292106214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2067,7 +2099,7 @@
         <v>170</v>
       </c>
       <c r="E27">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2076,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.8866547060123562</v>
+        <v>0.88665470601235619</v>
       </c>
       <c r="I27">
-        <v>0.971663676478089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.97166367647808904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2096,7 +2128,7 @@
         <v>171</v>
       </c>
       <c r="E28">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2105,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.9443039094149075</v>
+        <v>0.94430390941490749</v>
       </c>
       <c r="I28">
-        <v>0.9860759773287269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.98607597732872687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2125,7 +2157,7 @@
         <v>172</v>
       </c>
       <c r="E29">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2134,42 +2166,42 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.9304482439057717</v>
+        <v>0.93044824390577174</v>
       </c>
       <c r="I29">
-        <v>0.9826120609514429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+        <v>0.98261206095144293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E30">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F30" s="3">
         <v>0.5</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0.9400470933131028</v>
-      </c>
-      <c r="I30">
-        <v>0.8600117733032757</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.94004709331310277</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.86001177330327572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2215,7 @@
         <v>174</v>
       </c>
       <c r="E31">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2195,10 +2227,10 @@
         <v>0.8525427503541968</v>
       </c>
       <c r="I31">
-        <v>0.9631356875635492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.96313568756354917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2212,7 +2244,7 @@
         <v>139</v>
       </c>
       <c r="E32">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2227,7 +2259,7 @@
         <v>0.9744284845911656</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2241,7 +2273,7 @@
         <v>175</v>
       </c>
       <c r="E33">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F33">
         <v>0.8571428571428571</v>
@@ -2250,42 +2282,42 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.9049090132202818</v>
+        <v>0.90490901322028183</v>
       </c>
       <c r="I33">
-        <v>0.9405129675657847</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+        <v>0.94051296756578473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E34">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
+      <c r="E34" s="2">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>0.749999999975</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>176</v>
       </c>
       <c r="E35">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2308,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.8909406807947572</v>
+        <v>0.89094068079475719</v>
       </c>
       <c r="I35">
-        <v>0.9727351701736893</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.97273517017368927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2328,7 +2360,7 @@
         <v>177</v>
       </c>
       <c r="E36">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2337,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.8818732272834952</v>
+        <v>0.88187322728349515</v>
       </c>
       <c r="I36">
-        <v>0.9704683067958738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.97046830679587381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2357,7 +2389,7 @@
         <v>178</v>
       </c>
       <c r="E37">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2366,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.8725494772130221</v>
+        <v>0.87254947721302212</v>
       </c>
       <c r="I37">
-        <v>0.9681373692782556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.96813736927825556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2418,7 @@
         <v>179</v>
       </c>
       <c r="E38">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2398,10 +2430,10 @@
         <v>0.8928525679181486</v>
       </c>
       <c r="I38">
-        <v>0.9732131419545371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.97321314195453712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2415,7 +2447,7 @@
         <v>180</v>
       </c>
       <c r="E39">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2424,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.9517001020286783</v>
+        <v>0.95170010202867827</v>
       </c>
       <c r="I39">
-        <v>0.9879250254821695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.98792502548216954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2444,7 +2476,7 @@
         <v>181</v>
       </c>
       <c r="E40">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2453,13 +2485,13 @@
         <v>0.875</v>
       </c>
       <c r="H40">
-        <v>0.8879047968593872</v>
+        <v>0.88790479685938717</v>
       </c>
       <c r="I40">
-        <v>0.9407261991898468</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.94072619918984679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2473,7 +2505,7 @@
         <v>182</v>
       </c>
       <c r="E41">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2482,13 +2514,13 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.9571896233942686</v>
+        <v>0.95718962339426861</v>
       </c>
       <c r="I41">
-        <v>0.9892974058235672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.98929740582356718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2534,7 @@
         <v>149</v>
       </c>
       <c r="E42">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2514,10 +2546,10 @@
         <v>0.9695762024562814</v>
       </c>
       <c r="I42">
-        <v>0.9923940505890704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.99239405058907038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2563,7 @@
         <v>150</v>
       </c>
       <c r="E43">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2540,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.9544831895884521</v>
+        <v>0.95448318958845213</v>
       </c>
       <c r="I43">
-        <v>0.9886207973721131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.98862079737211306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2560,7 +2592,7 @@
         <v>183</v>
       </c>
       <c r="E44">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2569,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.9210039547348612</v>
+        <v>0.92100395473486119</v>
       </c>
       <c r="I44">
-        <v>0.9802509886587153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.98025098865871529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2621,7 @@
         <v>184</v>
       </c>
       <c r="E45">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2598,13 +2630,13 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.9176419950482601</v>
+        <v>0.91764199504826005</v>
       </c>
       <c r="I45">
-        <v>0.979410498737065</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.97941049873706498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2618,7 +2650,7 @@
         <v>153</v>
       </c>
       <c r="E46">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2627,13 +2659,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.9526155075560143</v>
+        <v>0.95261550755601432</v>
       </c>
       <c r="I46">
-        <v>0.9881538768640036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.98815387686400358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2679,7 @@
         <v>185</v>
       </c>
       <c r="E47">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2656,13 +2688,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.7842932702371276</v>
+        <v>0.78429327023712758</v>
       </c>
       <c r="I47">
-        <v>0.9460733175342819</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.94607331753428192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2676,7 +2708,7 @@
         <v>186</v>
       </c>
       <c r="E48">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F48">
         <v>0.8</v>
@@ -2685,42 +2717,42 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.8644713186749288</v>
+        <v>0.86447131867492877</v>
       </c>
       <c r="I48">
-        <v>0.9161178296437321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+        <v>0.91611782964373212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E49">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F49" s="3">
         <v>0.75</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>0.75</v>
       </c>
-      <c r="H49">
-        <v>0.8581150184687912</v>
-      </c>
-      <c r="I49">
-        <v>0.8395287545921978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="H49" s="3">
+        <v>0.85811501846879124</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.83952875459219778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2734,7 +2766,7 @@
         <v>188</v>
       </c>
       <c r="E50">
-        <v>0.9999999999</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="F50">
         <v>0.8</v>
@@ -2743,62 +2775,62 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.8408295969468366</v>
+        <v>0.84082959694683657</v>
       </c>
       <c r="I50">
-        <v>0.9102073992117091</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+        <v>0.91020739921170912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E51">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="2">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F51" s="2">
         <v>0.5</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>0.624999999975</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53">
-        <v>0.959999999904</v>
+        <v>0.95999999990399998</v>
       </c>
       <c r="F53">
-        <v>0.9146190476190474</v>
+        <v>0.91461904761904744</v>
       </c>
       <c r="G53">
-        <v>0.9658333333333333</v>
+        <v>0.96583333333333332</v>
       </c>
       <c r="H53">
         <v>0.8239036268486799</v>
       </c>
       <c r="I53">
-        <v>0.9160890019262651</v>
+        <v>0.91608900192626508</v>
       </c>
     </row>
   </sheetData>

--- a/test/adaptive/results/score_ragas_adaptive_20241227071640_vdb1000200_optimization.xlsx
+++ b/test/adaptive/results/score_ragas_adaptive_20241227071640_vdb1000200_optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\adaptive\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4104BD-2A04-4830-8C9F-345F1C7F977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DA136-880B-4C1C-9DAF-F461B7F9E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1019,6 +1019,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,32 +2783,32 @@
         <v>0.91020739921170912</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="2">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51" s="5">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F51" s="5">
         <v>0.5</v>
       </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
         <v>0</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="5">
         <v>0.624999999975</v>
       </c>
     </row>
